--- a/TTTStatsTag.xlsx
+++ b/TTTStatsTag.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrisspartz/Documents/School/fun/statTags/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrisspartz/Documents/School/fun/statTags/TTT_stats/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF9840D-BC2C-324A-97CE-52623BA3D9DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34FD0974-0364-2243-B2B7-588C37CF4202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16120" activeTab="3" xr2:uid="{605296F0-ECC4-3C4E-9A81-F310B2A629A3}"/>
+    <workbookView xWindow="14460" yWindow="2280" windowWidth="13960" windowHeight="14340" firstSheet="1" activeTab="3" xr2:uid="{605296F0-ECC4-3C4E-9A81-F310B2A629A3}"/>
   </bookViews>
   <sheets>
     <sheet name="PlayerStats" sheetId="1" r:id="rId1"/>
     <sheet name="TraitorPartners" sheetId="2" r:id="rId2"/>
     <sheet name="TraitorEquipment" sheetId="3" r:id="rId3"/>
-    <sheet name="DetectiveEquipment" sheetId="4" r:id="rId4"/>
+    <sheet name="TraitorEquipmentRaw" sheetId="6" r:id="rId4"/>
+    <sheet name="DetectiveEquipment" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="687">
   <si>
     <t>Player_Name</t>
   </si>
@@ -439,6 +440,1665 @@
   </si>
   <si>
     <t>Dragon_Elites</t>
+  </si>
+  <si>
+    <t>Oblivion Magic</t>
+  </si>
+  <si>
+    <t>Silenced M4A1</t>
+  </si>
+  <si>
+    <t>Frag_Grenade</t>
+  </si>
+  <si>
+    <t>Bullet_Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "pKing_Nuggets": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "KillerWins": 2,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "MercenaryRounds": 16,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "JesterRounds": 0,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "KillerRounds": 8,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "GlitchWins": 0,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "HypnotistWins": 3,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "AssassinWins": 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "VampireRounds": 0,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "JesterWins": 0,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "SwapperWins": 11,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "ZombieRounds": 29,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "TraitorPartners": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "nuzzels": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "Rounds": 13,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "Wins": 6,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "Nick": "nuzzels"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "MrBoy": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "Wins": 4,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "Nick": "MrBoy"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Amazingbro17": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "Rounds": 17,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "Wins": 5,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "Nick": "Amazingbro17"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Jeff_the_Shark": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "Rounds": 11,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "Wins": 3,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "Nick": "Jeff_the_Shark"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "TheMathGeek_314": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "Wins": 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "Nick": "TheMathGeek_314"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "ghostNINJA-72": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "Nick": "ghostNINJA-72"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "TARTARI": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "Rounds": 4,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "Nick": "TARTARI"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "silentscout9909": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "Rounds": 15,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "Wins": 7,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "Nick": "silentscout9909"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "FunLiberal": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "Rounds": 12,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "Nick": "FunLiberal"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "TraitorEquipment": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Health Station": 3,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Holy Hand Grenade": 12,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Chickenator": 3,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Eagleflight Gun": 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Grenade Launcher": 2,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Silenced M4A1": 2,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "RPG": 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Martyrdom": 2,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Traitorfier": 4,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "AK47": 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Blue Bull": 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Stamin-Up": 6,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Flesh Wound": 2,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Defibrillator": 4,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "DoubleTap Root Beer": 20,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Speed Cola Perk.": 8,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Moto Moto": 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Gnome Grenade": 3,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Manipulation Knife": 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Delayed Deagle": 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Random Launcher": 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Zombie Vault": 2,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "PHD Flopper Perk.": 14,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Poltergeist": 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Body Armor": 20,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Grapple Hook": 9,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Artillery Cannon": 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Radar": 27,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Juggernog": 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "item_wallhack": 46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "PhantomRounds": 0,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "PhantomWins": 0,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "GlitchRounds": 0,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "VampireWins": 0,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "DetectiveEquipment": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Mystery Box": 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Blue Bull": 4,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Gigafier": 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "DoubleTap Root Beer": 8,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Riotshield": 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "PHD Flopper Perk.": 9,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Body Armor": 3,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Stamin-Up": 3,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Health Station": 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "psilentscout9909": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "KillerRounds": 6,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "HypnotistRounds": 9,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "SwapperWins": 12,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "King_Nuggets": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "Nick": "King_Nuggets"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "Rounds": 6,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "Rounds": 16,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "Rounds": 26,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "Wins": 16,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "Rounds": 24,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "Rounds": 8,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "Wins": 2,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "Wins": 18,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Oblivion Magic": 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Orbital Headcrab Launcher": 7,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Eagleflight Gun": 36,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Blink": 2,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Radar": 18,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Traitorfier": 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Thwomp": 2,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Donconnon MKII": 18,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Gnome Grenade": 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Zombie Vault": 6,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Fassinator": 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Beenade": 5,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "PHD Flopper Perk.": 23,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Antlion Summoner": 13,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Stamin-Up": 23,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "item_wallhack": 13,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "I like your cut g": 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Chickenator": 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Medkit": 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Flesh Wound": 66,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "RDMPass": 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Defibrillator": 2,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Silenced AWP": 6,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Speed Cola Perk.": 16,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Moto Moto": 22,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Katana": 3,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Body Armor": 114,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Artillery Cannon": 4,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "The World": 16,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "DoubleTap Root Beer": 27,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Health Station": 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "DoubleTap Root Beer": 7,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Speed Cola Perk.": 5,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Random Tester": 10,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Health Station": 4,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Lightning AR1": 2,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "pMrBoy": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "MercenaryRounds": 6,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "KillerRounds": 9,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "KilledFirst": 60,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "HypnotistRounds": 14,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "TotalRoundsPlayed": 491,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "InnocentRounds": 254,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "AssassinRounds": 2,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "HypnotistWins": 6,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "AssassinWins": 2,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "DetectiveWins": 40,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "Nickname": "MrBoy",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "InnocentWins": 151,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "CrookedCop": 13,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "DetectiveRounds": 69,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "TriggerHappyInnocent": 62,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "SwapperWins": 13,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "Rounds": 14,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "Rounds": 10,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "Rounds": 7,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "Wins": 0,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "Rounds": 2,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "MercenaryWins": 5,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "TotalFallDamage": 2411,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "AK47": 21,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Silenced M4A1": 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Eagleflight Gun": 6,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Grenade Launcher": 8,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Fortnite Building": 9,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Traitorfier": 2,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Silenced AWP": 38,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Blue Bull": 2,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Holy Hand Grenade": 24,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Gnome Grenade": 10,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Donconnon MKII": 3,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "DoubleTap Root Beer": 12,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Speed Cola Perk.": 6,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Moto Moto": 2,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Poltergeist": 5,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Grapple Hook": 4,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Body Armor": 83,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Newton Launcher": 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "PHD Flopper Perk.": 8,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Bullet Bill": 4,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Antlion Summoner": 8,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Artillery Cannon": 7,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Radar": 36,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Health Station": 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "ZombieWins": 18,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "TraitorWins": 24,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "TraitorRounds": 87,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "SwapperRounds": 21,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "The T-Suitcase": 39,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "golden_deagle_name": 5,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Star Platinum": 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Minecraft Block": 13,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "TMP Prototype": 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "PHD Flopper Perk.": 6,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Visualizer": 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Body Armor": 37,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Stamin-Up": 2,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Radar": 12,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Fortnite Building": 14,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "pAmazingbro17": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "KillerWins": 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "KilledFirst": 88,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "HypnotistRounds": 11,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "TotalRoundsPlayed": 508,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "InnocentRounds": 258,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "AssassinRounds": 4,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "HypnotistWins": 9,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "DetectiveWins": 45,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "Nickname": "Amazingbro17",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "InnocentWins": 166,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "CrookedCop": 18,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "DetectiveRounds": 74,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "TriggerHappyInnocent": 33,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "SwapperWins": 9,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "Wins": 9,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "MercenaryWins": 9,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "TotalFallDamage": 5800,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "The T-Suitcase": 3,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Eagleflight Gun": 3,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "SlowMotion Gun": 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Teleporter": 7,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Fortnite Building": 7,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Silenced AWP": 36,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Blue Bull": 11,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "DoubleTap Root Beer": 11,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Speed Cola Perk.": 14,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Gnome Grenade": 2,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Popup Gun": 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Katana": 18,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Frag Grenade": 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Freeze Gun": 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "PHD Flopper Perk.": 24,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Bullet Bill": 13,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Body Armor": 35,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Antlion Summoner": 62,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Stamin-Up": 4,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Defibrillator": 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Deagle V2": 29,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Health Station": 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "ZombieWins": 16,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "TraitorWins": 37,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "TraitorRounds": 94,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "SwapperRounds": 14,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Deagle V2": 3,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "The T-Suitcase": 12,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Star Platinum": 2,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Teleporter": 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Fortnite Building": 6,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Mystery Box": 5,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Blue Bull": 8,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Gigafier": 2,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Speed Cola Perk.": 4,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "golden_deagle_name": 42,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Minecraft Block": 8,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "PHD Flopper Perk.": 16,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "juggernaut_suit_name": 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Body Armor": 12,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Stungun": 2,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Radar": 3,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Random Tester": 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Command Prompt": 23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "pJeff_the_Shark": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "KillerWins": 0,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "MercenaryRounds": 10,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "KilledFirst": 43,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "HypnotistRounds": 20,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "TotalRoundsPlayed": 527,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "InnocentRounds": 265,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "DetectiveWins": 36,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "Nickname": "Jeff_the_Shark",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "InnocentWins": 168,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "DetectiveRounds": 66,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "TriggerHappyInnocent": 34,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "SwapperWins": 14,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "ZombieRounds": 37,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "MercenaryWins": 7,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "TotalFallDamage": 1355,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "AK47": 16,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Radar": 60,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Defibrillator": 15,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Speed Cola Perk.": 25,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Gnome Grenade": 5,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Katana": 53,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Beenade": 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Body Armor": 80,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "The World": 10,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Martyrdom": 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "ZombieWins": 22,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "TraitorRounds": 89,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "SwapperRounds": 28,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Speed Cola Perk.": 17,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Riotshield": 3,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "golden_deagle_name": 32,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Star Platinum": 4,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "PHD Flopper Perk.": 2,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Radar": 19,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Body Armor": 29,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Health Station": 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "pTheMathGeek_314": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "KillerRounds": 2,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "KilledFirst": 35,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "HypnotistRounds": 7,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "TotalRoundsPlayed": 350,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "InnocentRounds": 191,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "HypnotistWins": 2,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "Nickname": "TheMathGeek_314",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "InnocentWins": 108,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "CrookedCop": 11,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "DetectiveRounds": 42,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "TriggerHappyInnocent": 19,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "SwapperWins": 5,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "ZombieRounds": 23,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "Rounds": 9,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "DoubleTap Root Beer": 2,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Speed Cola Perk.": 2,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "golden_deagle_name": 15,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Star Platinum": 6,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Oblivion Magic": 3,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Random Tester": 2,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Body Armor": 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "TotalFallDamage": 1328,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "I like your cut g": 2,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Orbital Headcrab Launcher": 4,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Holy Hand Grenade": 4,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Eagleflight Gun": 17,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Radar": 6,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Thwomp": 4,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "C4 Charge": 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Donconnon MKII": 7,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Speed Cola Perk.": 7,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Moto Moto": 7,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Katana": 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Beenade": 3,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Peacekeeper": 2,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Antlion Summoner": 5,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "The World": 3,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Tripwire Mine": 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "TraitorRounds": 62,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "TraitorWins": 13,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "DetectiveWins": 24,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "SwapperRounds": 11,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "ZombieWins": 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "pghostNINJA-72": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "KillerRounds": 7,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "KilledFirst": 76,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "HypnotistRounds": 10,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "TotalRoundsPlayed": 420,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "InnocentRounds": 213,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "AssassinRounds": 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "HypnotistWins": 5,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "AssassinWins": 0,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "DetectiveWins": 30,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "Nickname": "ghostNINJA-72",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "InnocentWins": 123,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "CrookedCop": 31,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "DetectiveRounds": 49,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "TriggerHappyInnocent": 83,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "ZombieRounds": 20,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "TotalFallDamage": 1147,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Deagle V2": 2,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "The T-Suitcase": 7,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Eagleflight Gun": 59,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Fake Tester": 3,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Radar": 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Juggernog": 2,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Defibrillator": 6,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "DoubleTap Root Beer": 9,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Speed Cola Perk.": 11,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "SATM": 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Zombie Vault": 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Katana": 16,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "item_wallhack": 58,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "PHD Flopper Perk.": 15,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Body Armor": 34,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Silent Fox": 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Antlion Summoner": 6,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "ZombieWins": 11,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "TraitorRounds": 83,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "SwapperRounds": 27,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "FN P90": 3,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Deagle V2": 5,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "The T-Suitcase": 13,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Stungun": 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Radar": 5,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Mystery Box": 2,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "DoubleTap Root Beer": 4,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Speed Cola Perk.": 3,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "juggernaut_suit_name": 15,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Handcuffs": 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Minecraft Block": 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "PHD Flopper Perk.": 5,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "golden_deagle_name": 28,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Command Prompt": 19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "pTARTARI": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "KillerRounds": 0,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "KilledFirst": 11,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "TotalRoundsPlayed": 136,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "InnocentRounds": 67,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "AssassinRounds": 0,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "HypnotistWins": 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "Nickname": "TARTARI",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "InnocentWins": 40,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "CrookedCop": 6,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "DetectiveRounds": 12,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "TriggerHappyInnocent": 11,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "SwapperWins": 6,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "ZombieRounds": 6,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "Rounds": 5,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "TraitorRounds": 24,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "TotalFallDamage": 396,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Deagle V2": 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Orbital Headcrab Launcher": 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "RPG": 3,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Radar": 2,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Tripwire Mine": 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Juggernog": 3,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Silenced AWP": 2,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Silenced Pistol": 3,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Dragon Elites": 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Bullet Bill": 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Silent Fox": 2,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "The World": 7,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "item_wallhack": 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "ZombieWins": 2,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "PHD Flopper Perk.": 3,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "golden_deagle_name": 3,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Random Tester": 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "TraitorWins": 6,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "DetectiveWins": 7,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "SwapperRounds": 12,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "MercenaryWins": 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "pnuzzels": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "KillerWins": 4,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "MercenaryRounds": 21,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "KillerRounds": 5,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "HypnotistRounds": 21,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "TotalRoundsPlayed": 696,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "InnocentRounds": 316,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "AssassinRounds": 14,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "HypnotistWins": 16,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "AssassinWins": 8,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "DetectiveWins": 62,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "Nickname": "nuzzels",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "InnocentWins": 201,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "CrookedCop": 10,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "DetectiveRounds": 88,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "TriggerHappyInnocent": 56,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "ZombieRounds": 64,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "MercenaryWins": 12,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "TotalFallDamage": 15590,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "C4": 6,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Holy Hand Grenade": 6,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Eagleflight Gun": 7,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Blink": 15,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Fake Tester": 5,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Martyrdom": 19,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Tripwire Mine": 3,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Dead Ringer": 25,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Turret": 12,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Popup Gun": 2,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Fassinator": 6,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Beenade": 4,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "AK-47 Gaddafi": 2,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Stamin-Up": 16,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "item_wallhack": 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "SurpriseCombine": 2,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "I like your cut g": 6,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "M2 Flamethrower": 8,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Grapple Hook": 3,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Radar": 23,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Body Armor": 28,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Gold Dragon": 2,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Flesh Wound": 3,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Silenced AWP": 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Defibrillator": 18,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Speed Cola Perk.": 12,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Moto Moto": 4,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Freeze Gun": 2,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "SATM": 41,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Donconnon MKII": 4,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Death Faker": 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Credit Printer": 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "RPG": 2,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Manipulation Knife": 16,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Artillery Cannon": 18,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "The World": 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Prop Disguiser": 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "ZombieWins": 50,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "TraitorWins": 89,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "TraitorRounds": 145,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "SwapperRounds": 22,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "FN P90": 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Deagle V2": 4,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "The T-Suitcase": 10,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Bruh Bunker": 2,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Medkit": 2,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Mystery Box": 36,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Gigafier": 6,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "golden_deagle_name": 9,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Random Tester": 12,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Freeze Gun": 6,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "PHD Flopper Perk.": 20,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Command Prompt": 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Body Armor": 5,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Fortnite Building": 5,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "juggernaut_suit_name": 11,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "pFunLiberal": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "MercenaryRounds": 14,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "KilledFirst": 104,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "HypnotistRounds": 12,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "TotalRoundsPlayed": 498,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "DetectiveWins": 29,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "Nickname": "FunLiberal",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "InnocentWins": 165,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "CrookedCop": 23,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "DetectiveRounds": 61,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "TriggerHappyInnocent": 60,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "ZombieRounds": 31,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "MercenaryWins": 10,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "TotalFallDamage": 2912,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Silenced AWP": 8,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Chickenator": 2,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Blue Bull": 7,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Radar": 34,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Body Armor": 32,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Stamin-Up": 9,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "RPG": 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "ZombieWins": 17,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "TraitorWins": 31,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "TraitorRounds": 91,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "SwapperRounds": 16,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "The T-Suitcase": 2,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Star Platinum": 7,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Stungun": 9,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Radar": 9,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "S&amp;W 500": 2,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "golden_deagle_name": 21,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Handcuffs": 11,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "PHD Flopper Perk.": 7,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      "Body Armor": 4,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  }</t>
+  </si>
+  <si>
+    <t>}</t>
   </si>
 </sst>
 </file>
@@ -2292,15 +3952,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17EE3FDE-1DFF-DA45-822B-D24BC746CD10}">
-  <dimension ref="A1:BB11"/>
+  <dimension ref="A1:BK11"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
-      <selection sqref="A1:A11"/>
+    <sheetView topLeftCell="BE1" zoomScale="107" workbookViewId="0">
+      <selection activeCell="BK6" sqref="BK6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2463,8 +4123,35 @@
       <c r="BB1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="BC1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>108</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>126</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>123</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -2478,7 +4165,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -2492,7 +4179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -2506,7 +4193,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -2519,8 +4206,95 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>2</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>24</v>
+      </c>
+      <c r="U5">
+        <v>4</v>
+      </c>
+      <c r="Y5">
+        <v>29</v>
+      </c>
+      <c r="AD5">
+        <v>18</v>
+      </c>
+      <c r="AE5">
+        <v>35</v>
+      </c>
+      <c r="AH5">
+        <v>1</v>
+      </c>
+      <c r="AI5">
+        <v>36</v>
+      </c>
+      <c r="AL5">
+        <v>1</v>
+      </c>
+      <c r="AM5">
+        <v>11</v>
+      </c>
+      <c r="AN5">
+        <v>14</v>
+      </c>
+      <c r="AO5">
+        <v>2</v>
+      </c>
+      <c r="AP5">
+        <v>1</v>
+      </c>
+      <c r="AR5">
+        <v>3</v>
+      </c>
+      <c r="AS5">
+        <v>18</v>
+      </c>
+      <c r="AX5">
+        <v>7</v>
+      </c>
+      <c r="BA5">
+        <v>62</v>
+      </c>
+      <c r="BC5">
+        <v>1</v>
+      </c>
+      <c r="BD5">
+        <v>3</v>
+      </c>
+      <c r="BE5">
+        <v>1</v>
+      </c>
+      <c r="BF5">
+        <v>7</v>
+      </c>
+      <c r="BG5">
+        <v>1</v>
+      </c>
+      <c r="BH5">
+        <v>11</v>
+      </c>
+      <c r="BI5">
+        <v>1</v>
+      </c>
+      <c r="BJ5">
+        <v>13</v>
+      </c>
+      <c r="BK5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -2534,7 +4308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -2551,7 +4325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -2565,7 +4339,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -2579,7 +4353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -2596,7 +4370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -2616,10 +4390,5005 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F354CB5-E9BF-2B47-9033-E5956B665E78}">
+  <dimension ref="A1:Y1284"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" t="s">
+        <v>231</v>
+      </c>
+      <c r="G1" t="s">
+        <v>281</v>
+      </c>
+      <c r="J1" t="s">
+        <v>406</v>
+      </c>
+      <c r="M1" t="s">
+        <v>443</v>
+      </c>
+      <c r="P1" t="s">
+        <v>487</v>
+      </c>
+      <c r="S1" t="s">
+        <v>538</v>
+      </c>
+      <c r="V1" t="s">
+        <v>576</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G2" t="s">
+        <v>184</v>
+      </c>
+      <c r="J2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M2" t="s">
+        <v>184</v>
+      </c>
+      <c r="P2" t="s">
+        <v>184</v>
+      </c>
+      <c r="S2" t="s">
+        <v>184</v>
+      </c>
+      <c r="V2" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D3" t="s">
+        <v>245</v>
+      </c>
+      <c r="G3" t="s">
+        <v>305</v>
+      </c>
+      <c r="J3" t="s">
+        <v>422</v>
+      </c>
+      <c r="M3" t="s">
+        <v>466</v>
+      </c>
+      <c r="P3" t="s">
+        <v>504</v>
+      </c>
+      <c r="S3" t="s">
+        <v>555</v>
+      </c>
+      <c r="V3" t="s">
+        <v>595</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D4" t="s">
+        <v>246</v>
+      </c>
+      <c r="G4" t="s">
+        <v>306</v>
+      </c>
+      <c r="J4" t="s">
+        <v>306</v>
+      </c>
+      <c r="M4" t="s">
+        <v>467</v>
+      </c>
+      <c r="P4" t="s">
+        <v>505</v>
+      </c>
+      <c r="S4" t="s">
+        <v>556</v>
+      </c>
+      <c r="V4" t="s">
+        <v>556</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D5" t="s">
+        <v>247</v>
+      </c>
+      <c r="G5" t="s">
+        <v>307</v>
+      </c>
+      <c r="J5" t="s">
+        <v>423</v>
+      </c>
+      <c r="M5" t="s">
+        <v>468</v>
+      </c>
+      <c r="P5" t="s">
+        <v>468</v>
+      </c>
+      <c r="S5" t="s">
+        <v>194</v>
+      </c>
+      <c r="V5" t="s">
+        <v>596</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D6" t="s">
+        <v>248</v>
+      </c>
+      <c r="G6" t="s">
+        <v>308</v>
+      </c>
+      <c r="J6" t="s">
+        <v>195</v>
+      </c>
+      <c r="M6" t="s">
+        <v>469</v>
+      </c>
+      <c r="P6" t="s">
+        <v>506</v>
+      </c>
+      <c r="S6" t="s">
+        <v>557</v>
+      </c>
+      <c r="V6" t="s">
+        <v>597</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D7" t="s">
+        <v>249</v>
+      </c>
+      <c r="G7" t="s">
+        <v>309</v>
+      </c>
+      <c r="J7" t="s">
+        <v>424</v>
+      </c>
+      <c r="M7" t="s">
+        <v>470</v>
+      </c>
+      <c r="P7" t="s">
+        <v>507</v>
+      </c>
+      <c r="S7" t="s">
+        <v>558</v>
+      </c>
+      <c r="V7" t="s">
+        <v>364</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>190</v>
+      </c>
+      <c r="D8" t="s">
+        <v>250</v>
+      </c>
+      <c r="G8" t="s">
+        <v>310</v>
+      </c>
+      <c r="J8" t="s">
+        <v>276</v>
+      </c>
+      <c r="M8" t="s">
+        <v>471</v>
+      </c>
+      <c r="P8" t="s">
+        <v>508</v>
+      </c>
+      <c r="S8" t="s">
+        <v>559</v>
+      </c>
+      <c r="V8" t="s">
+        <v>598</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>191</v>
+      </c>
+      <c r="D9" t="s">
+        <v>251</v>
+      </c>
+      <c r="G9" t="s">
+        <v>311</v>
+      </c>
+      <c r="J9" t="s">
+        <v>425</v>
+      </c>
+      <c r="M9" t="s">
+        <v>472</v>
+      </c>
+      <c r="P9" t="s">
+        <v>509</v>
+      </c>
+      <c r="S9" t="s">
+        <v>560</v>
+      </c>
+      <c r="V9" t="s">
+        <v>599</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>192</v>
+      </c>
+      <c r="D10" t="s">
+        <v>252</v>
+      </c>
+      <c r="G10" t="s">
+        <v>312</v>
+      </c>
+      <c r="J10" t="s">
+        <v>201</v>
+      </c>
+      <c r="M10" t="s">
+        <v>473</v>
+      </c>
+      <c r="P10" t="s">
+        <v>510</v>
+      </c>
+      <c r="S10" t="s">
+        <v>266</v>
+      </c>
+      <c r="V10" t="s">
+        <v>600</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>193</v>
+      </c>
+      <c r="D11" t="s">
+        <v>253</v>
+      </c>
+      <c r="G11" t="s">
+        <v>313</v>
+      </c>
+      <c r="J11" t="s">
+        <v>426</v>
+      </c>
+      <c r="M11" t="s">
+        <v>223</v>
+      </c>
+      <c r="P11" t="s">
+        <v>511</v>
+      </c>
+      <c r="S11" t="s">
+        <v>561</v>
+      </c>
+      <c r="V11" t="s">
+        <v>310</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>194</v>
+      </c>
+      <c r="D12" t="s">
+        <v>254</v>
+      </c>
+      <c r="G12" t="s">
+        <v>314</v>
+      </c>
+      <c r="J12" t="s">
+        <v>427</v>
+      </c>
+      <c r="M12" t="s">
+        <v>474</v>
+      </c>
+      <c r="P12" t="s">
+        <v>512</v>
+      </c>
+      <c r="S12" t="s">
+        <v>531</v>
+      </c>
+      <c r="V12" t="s">
+        <v>601</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>195</v>
+      </c>
+      <c r="D13" t="s">
+        <v>255</v>
+      </c>
+      <c r="G13" t="s">
+        <v>315</v>
+      </c>
+      <c r="J13" t="s">
+        <v>428</v>
+      </c>
+      <c r="M13" t="s">
+        <v>475</v>
+      </c>
+      <c r="P13" t="s">
+        <v>318</v>
+      </c>
+      <c r="S13" t="s">
+        <v>201</v>
+      </c>
+      <c r="V13" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>196</v>
+      </c>
+      <c r="D14" t="s">
+        <v>256</v>
+      </c>
+      <c r="G14" t="s">
+        <v>316</v>
+      </c>
+      <c r="J14" t="s">
+        <v>338</v>
+      </c>
+      <c r="M14" t="s">
+        <v>253</v>
+      </c>
+      <c r="P14" t="s">
+        <v>513</v>
+      </c>
+      <c r="S14" t="s">
+        <v>478</v>
+      </c>
+      <c r="V14" t="s">
+        <v>602</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>197</v>
+      </c>
+      <c r="D15" t="s">
+        <v>257</v>
+      </c>
+      <c r="G15" t="s">
+        <v>317</v>
+      </c>
+      <c r="J15" t="s">
+        <v>429</v>
+      </c>
+      <c r="M15" t="s">
+        <v>372</v>
+      </c>
+      <c r="P15" t="s">
+        <v>514</v>
+      </c>
+      <c r="S15" t="s">
+        <v>562</v>
+      </c>
+      <c r="V15" t="s">
+        <v>603</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>198</v>
+      </c>
+      <c r="D16" t="s">
+        <v>258</v>
+      </c>
+      <c r="G16" t="s">
+        <v>318</v>
+      </c>
+      <c r="J16" t="s">
+        <v>213</v>
+      </c>
+      <c r="M16" t="s">
+        <v>476</v>
+      </c>
+      <c r="P16" t="s">
+        <v>515</v>
+      </c>
+      <c r="S16" t="s">
+        <v>563</v>
+      </c>
+      <c r="V16" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>199</v>
+      </c>
+      <c r="D17" t="s">
+        <v>259</v>
+      </c>
+      <c r="G17" t="s">
+        <v>319</v>
+      </c>
+      <c r="J17" t="s">
+        <v>196</v>
+      </c>
+      <c r="M17" t="s">
+        <v>477</v>
+      </c>
+      <c r="P17" t="s">
+        <v>516</v>
+      </c>
+      <c r="S17" t="s">
+        <v>428</v>
+      </c>
+      <c r="V17" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>200</v>
+      </c>
+      <c r="D18" t="s">
+        <v>260</v>
+      </c>
+      <c r="G18" t="s">
+        <v>196</v>
+      </c>
+      <c r="J18" t="s">
+        <v>430</v>
+      </c>
+      <c r="M18" t="s">
+        <v>478</v>
+      </c>
+      <c r="P18" t="s">
+        <v>517</v>
+      </c>
+      <c r="S18" t="s">
+        <v>323</v>
+      </c>
+      <c r="V18" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>201</v>
+      </c>
+      <c r="D19" t="s">
+        <v>261</v>
+      </c>
+      <c r="G19" t="s">
+        <v>320</v>
+      </c>
+      <c r="J19" t="s">
+        <v>431</v>
+      </c>
+      <c r="M19" t="s">
+        <v>324</v>
+      </c>
+      <c r="P19" t="s">
+        <v>431</v>
+      </c>
+      <c r="S19" t="s">
+        <v>564</v>
+      </c>
+      <c r="V19" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>202</v>
+      </c>
+      <c r="D20" t="s">
+        <v>262</v>
+      </c>
+      <c r="G20" t="s">
+        <v>321</v>
+      </c>
+      <c r="J20" t="s">
+        <v>383</v>
+      </c>
+      <c r="M20" t="s">
+        <v>479</v>
+      </c>
+      <c r="P20" t="s">
+        <v>518</v>
+      </c>
+      <c r="S20" t="s">
+        <v>401</v>
+      </c>
+      <c r="V20" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>203</v>
+      </c>
+      <c r="D21" t="s">
+        <v>263</v>
+      </c>
+      <c r="G21" t="s">
+        <v>322</v>
+      </c>
+      <c r="M21" t="s">
+        <v>227</v>
+      </c>
+      <c r="P21" t="s">
+        <v>519</v>
+      </c>
+      <c r="S21" t="s">
+        <v>479</v>
+      </c>
+      <c r="V21" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>204</v>
+      </c>
+      <c r="D22" t="s">
+        <v>264</v>
+      </c>
+      <c r="G22" t="s">
+        <v>323</v>
+      </c>
+      <c r="M22" t="s">
+        <v>480</v>
+      </c>
+      <c r="P22" t="s">
+        <v>380</v>
+      </c>
+      <c r="S22" t="s">
+        <v>565</v>
+      </c>
+      <c r="V22" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>205</v>
+      </c>
+      <c r="D23" t="s">
+        <v>213</v>
+      </c>
+      <c r="G23" t="s">
+        <v>324</v>
+      </c>
+      <c r="M23" t="s">
+        <v>225</v>
+      </c>
+      <c r="P23" t="s">
+        <v>326</v>
+      </c>
+      <c r="S23" t="s">
+        <v>566</v>
+      </c>
+      <c r="V23" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>206</v>
+      </c>
+      <c r="D24" t="s">
+        <v>265</v>
+      </c>
+      <c r="G24" t="s">
+        <v>203</v>
+      </c>
+      <c r="M24" t="s">
+        <v>481</v>
+      </c>
+      <c r="P24" t="s">
+        <v>520</v>
+      </c>
+      <c r="S24" t="s">
+        <v>195</v>
+      </c>
+      <c r="V24" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>207</v>
+      </c>
+      <c r="D25" t="s">
+        <v>266</v>
+      </c>
+      <c r="G25" t="s">
+        <v>325</v>
+      </c>
+      <c r="P25" t="s">
+        <v>442</v>
+      </c>
+      <c r="S25" t="s">
+        <v>567</v>
+      </c>
+      <c r="V25" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>208</v>
+      </c>
+      <c r="D26" t="s">
+        <v>267</v>
+      </c>
+      <c r="G26" t="s">
+        <v>326</v>
+      </c>
+      <c r="V26" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>209</v>
+      </c>
+      <c r="D27" t="s">
+        <v>268</v>
+      </c>
+      <c r="G27" t="s">
+        <v>213</v>
+      </c>
+      <c r="V27" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>210</v>
+      </c>
+      <c r="D28" t="s">
+        <v>269</v>
+      </c>
+      <c r="G28" t="s">
+        <v>327</v>
+      </c>
+      <c r="V28" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>211</v>
+      </c>
+      <c r="D29" t="s">
+        <v>270</v>
+      </c>
+      <c r="G29" t="s">
+        <v>328</v>
+      </c>
+      <c r="V29" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>212</v>
+      </c>
+      <c r="D30" t="s">
+        <v>271</v>
+      </c>
+      <c r="V30" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>213</v>
+      </c>
+      <c r="D31" t="s">
+        <v>205</v>
+      </c>
+      <c r="V31" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>214</v>
+      </c>
+      <c r="D32" t="s">
+        <v>272</v>
+      </c>
+      <c r="V32" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="33" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>273</v>
+      </c>
+      <c r="V33" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="34" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>274</v>
+      </c>
+      <c r="V34" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="35" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>275</v>
+      </c>
+      <c r="V35" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="36" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="V36" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="37" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="V37" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="38" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="V38" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="39" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="V39" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="40" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="V40" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="41" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="V41" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="42" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="V42" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="43" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="V43" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="44" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="V44" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="45" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="V45" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="46" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="V46" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="47" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="V47" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="48" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="V48" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="49" spans="22:22" x14ac:dyDescent="0.2">
+      <c r="V49" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="50" spans="22:22" x14ac:dyDescent="0.2">
+      <c r="V50" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="51" spans="22:22" x14ac:dyDescent="0.2">
+      <c r="V51" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="52" spans="22:22" x14ac:dyDescent="0.2">
+      <c r="V52" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="53" spans="22:22" x14ac:dyDescent="0.2">
+      <c r="V53" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="54" spans="22:22" x14ac:dyDescent="0.2">
+      <c r="V54" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="55" spans="22:22" x14ac:dyDescent="0.2">
+      <c r="V55" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A325" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A326" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A328" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A329" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A330" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A333" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A334" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A335" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A336" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A337" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A338" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A339" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A340" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A341" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A342" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A343" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A344" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A345" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A346" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A347" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A348" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A377" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A378" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A379" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A380" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A381" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A382" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A383" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A384" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A385" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A386" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A387" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A388" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A389" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A390" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A391" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A392" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A393" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A394" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A395" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A396" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A397" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A398" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A399" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A400" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A401" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A402" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A403" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A404" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A405" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A406" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A407" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A408" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A409" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A410" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A411" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A412" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A413" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A414" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A415" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A416" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A417" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A418" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A419" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A420" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A421" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A422" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A423" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A424" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A425" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A426" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A427" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A428" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A429" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A430" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A431" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A432" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A433" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A434" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A435" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A436" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A437" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A438" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A439" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A440" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A441" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A442" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A443" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A444" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A445" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A446" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A447" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A448" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A449" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A450" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A451" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A452" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A453" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A454" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A455" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A456" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A457" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A458" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A459" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A460" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A461" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A462" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A463" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A464" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A465" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A466" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A467" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A468" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A469" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A470" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A471" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A472" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A473" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A474" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A475" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A476" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A477" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A478" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A479" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A480" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A481" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A482" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A483" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A484" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A485" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A486" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A487" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A488" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A489" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A490" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A491" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A492" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A493" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A494" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A495" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A496" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A497" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A498" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A499" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A500" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A501" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A502" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A503" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A504" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A505" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A506" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A507" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A508" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A509" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A510" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A511" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A512" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A513" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A514" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A515" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A516" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A517" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A518" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A519" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A520" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A521" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A522" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A523" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A524" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A525" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A526" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A527" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A528" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A529" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A530" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A531" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A532" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A533" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A534" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A535" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A536" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A537" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A538" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A539" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A541" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="542" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A542" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A543" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A544" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A545" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A546" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A547" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A548" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A549" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A550" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A551" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A552" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A553" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A554" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A555" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A556" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A557" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A558" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A559" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A560" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A561" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A562" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A563" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A564" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A565" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A566" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A567" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A568" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A569" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A570" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A571" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A572" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="573" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A573" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A574" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A575" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="576" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A576" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="577" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A577" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="578" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A578" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="579" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A579" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="580" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A580" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A581" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="582" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A582" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="583" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A583" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="584" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A584" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="585" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A585" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="586" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A586" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="587" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A587" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="588" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A588" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="589" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A589" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="590" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A590" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="591" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A591" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="592" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A592" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A593" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="594" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A594" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A595" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A596" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A597" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="598" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A598" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A599" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="600" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A600" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="601" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A601" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="602" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A602" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="603" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A603" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="604" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A604" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="605" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A605" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="606" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A606" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="607" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A607" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="608" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A608" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="609" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A609" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="610" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A610" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="611" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A611" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="631" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A631" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="632" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A632" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="633" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A633" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="634" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A634" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="635" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A635" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="636" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A636" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="637" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A637" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="638" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A638" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="639" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A639" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="640" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A640" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="641" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A641" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="642" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A642" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="643" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A643" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="644" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A644" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="645" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A645" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="646" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A646" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="647" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A647" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="648" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A648" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="649" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A649" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="650" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A650" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="651" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A651" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="652" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A652" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="653" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A653" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="655" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A655" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="656" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A656" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="657" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A657" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="658" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A658" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="659" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A659" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="660" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A660" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="661" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A661" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="662" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A662" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="663" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A663" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="664" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A664" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="665" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A665" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="666" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A666" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="667" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A667" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="668" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A668" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="669" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A669" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="670" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A670" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="671" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A671" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="672" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A672" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="673" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A673" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="674" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A674" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="675" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A675" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="676" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A676" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="677" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A677" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="678" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A678" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="679" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A679" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="680" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A680" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="681" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A681" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="682" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A682" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="683" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A683" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="684" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A684" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="685" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A685" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="686" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A686" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="687" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A687" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="688" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A688" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="689" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A689" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="690" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A690" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="691" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A691" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="692" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A692" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="693" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A693" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="694" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A694" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="695" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A695" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="696" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A696" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="697" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A697" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="698" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A698" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="699" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A699" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="700" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A700" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="701" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A701" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="702" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A702" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="703" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A703" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="704" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A704" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="705" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A705" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="706" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A706" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="707" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A707" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="708" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A708" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="709" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A709" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="710" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A710" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="711" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A711" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="712" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A712" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="713" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A713" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="714" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A714" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="715" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A715" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="716" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A716" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="717" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A717" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="718" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A718" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="719" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A719" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="720" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A720" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="721" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A721" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="722" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A722" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="723" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A723" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="724" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A724" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="725" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A725" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="726" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A726" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="727" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A727" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="728" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A728" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="729" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A729" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="730" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A730" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="731" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A731" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="732" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A732" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="733" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A733" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="734" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A734" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="758" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A758" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="759" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A759" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="760" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A760" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="761" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A761" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="762" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A762" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="763" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A763" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="764" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A764" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="765" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A765" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="766" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A766" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="767" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A767" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="768" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A768" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="770" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A770" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="771" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A771" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="772" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A772" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="773" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A773" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="774" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A774" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="775" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A775" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="776" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A776" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="777" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A777" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="778" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A778" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="779" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A779" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="780" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A780" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="781" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A781" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="782" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A782" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="783" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A783" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="784" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A784" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="785" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A785" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="786" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A786" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="787" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A787" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="788" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A788" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="789" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A789" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="790" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A790" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="791" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A791" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="792" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A792" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="793" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A793" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="794" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A794" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="795" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A795" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="796" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A796" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="797" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A797" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="798" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A798" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="799" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A799" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="800" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A800" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="801" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A801" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="802" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A802" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="803" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A803" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="804" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A804" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="805" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A805" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="806" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A806" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="807" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A807" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="808" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A808" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="809" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A809" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="810" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A810" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="811" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A811" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="812" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A812" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="813" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A813" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="814" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A814" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="815" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A815" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="816" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A816" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="817" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A817" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="818" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A818" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="819" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A819" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="820" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A820" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="821" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A821" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="822" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A822" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="823" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A823" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="824" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A824" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="825" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A825" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="826" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A826" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="827" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A827" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="828" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A828" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="829" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A829" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="830" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A830" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="831" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A831" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="832" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A832" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="833" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A833" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="834" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A834" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="835" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A835" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="836" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A836" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="837" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A837" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="838" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A838" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="839" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A839" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="840" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A840" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="865" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A865" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="866" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A866" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="867" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A867" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="868" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A868" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="869" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A869" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="870" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A870" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="871" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A871" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="872" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A872" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="873" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A873" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="874" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A874" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="875" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A875" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="876" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A876" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="877" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A877" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="878" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A878" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="879" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A879" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="880" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A880" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="881" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A881" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="882" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A882" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="883" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A883" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="884" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A884" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="885" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A885" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="886" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A886" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="887" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A887" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="888" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A888" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="889" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A889" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="890" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A890" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="891" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A891" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="892" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A892" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="893" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A893" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="894" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A894" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="896" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A896" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="897" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A897" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="898" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A898" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="899" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A899" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="900" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A900" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="901" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A901" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="902" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A902" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="903" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A903" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="904" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A904" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="905" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A905" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="906" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A906" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="907" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A907" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="908" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A908" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="909" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A909" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="910" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A910" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="911" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A911" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="912" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A912" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="913" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A913" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="914" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A914" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="915" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A915" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="916" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A916" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="917" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A917" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="918" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A918" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="919" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A919" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="920" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A920" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="921" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A921" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="922" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A922" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="923" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A923" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="924" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A924" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="925" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A925" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="926" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A926" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="927" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A927" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="928" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A928" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="929" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A929" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="930" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A930" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="931" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A931" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="932" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A932" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="933" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A933" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="934" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A934" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="935" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A935" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="936" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A936" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="937" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A937" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="938" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A938" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="939" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A939" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="940" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A940" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="941" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A941" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="942" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A942" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="943" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A943" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="944" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A944" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="945" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A945" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="946" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A946" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="947" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A947" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="948" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A948" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="949" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A949" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="950" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A950" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="951" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A951" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="952" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A952" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="953" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A953" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="954" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A954" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="955" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A955" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="956" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A956" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="957" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A957" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="958" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A958" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="959" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A959" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="960" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A960" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="961" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A961" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="986" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A986" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="987" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A987" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="988" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A988" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="989" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A989" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="990" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A990" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="991" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A991" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="992" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A992" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="993" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A993" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="994" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A994" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="995" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A995" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="996" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A996" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="997" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A997" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="998" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A998" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="999" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A999" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1000" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1001" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1002" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1003" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1004" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1005" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1007" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1008" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1009" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1010" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1011" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1012" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1013" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1014" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1015" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1016" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1017" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1018" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1019" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1020" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1021" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1022" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1023" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1024" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1025" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1026" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1027" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1028" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1029" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1030" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1031" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1032" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1033" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1034" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1035" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1036" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1037" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1038" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1039" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1040" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1041" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1042" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1043" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1044" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1045" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1046" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1047" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1048" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1049" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1050" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1051" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1052" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1053" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1054" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1055" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1056" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1057" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1058" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1059" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1060" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1061" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1062" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1063" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1064" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1065" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1066" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1067" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1068" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1069" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1070" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1071" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1072" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1073" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1074" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1075" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1076" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1077" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1132" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1133" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1134" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1135" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1136" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1137" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1138" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1139" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1140" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1141" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1142" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1143" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1144" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1145" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1146" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1147" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1148" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1149" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1150" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1151" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1152" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1153" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1154" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1155" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1156" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1157" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1158" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1159" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1160" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1161" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1162" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1163" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1164" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1165" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1166" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1167" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1169" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1170" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1171" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1172" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1173" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1174" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1175" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1176" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1177" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1178" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1179" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1180" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1181" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1182" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1183" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1184" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1185" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1186" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1187" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1188" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1189" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1190" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1191" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1192" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1193" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1194" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1195" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1196" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1197" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1198" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1199" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1200" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1201" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1202" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1203" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1204" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1205" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1206" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1207" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1208" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1209" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1210" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1211" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1212" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1213" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1214" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1215" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1216" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1217" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1218" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1219" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1220" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1221" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1222" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1223" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1224" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1225" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1226" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1227" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1228" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1229" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1230" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1231" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1232" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1233" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1234" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1235" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1236" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1237" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1238" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1239" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1254" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1255" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1256" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1257" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1258" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1259" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1260" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1261" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1262" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1263" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1264" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1265" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1266" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1267" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1268" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1269" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1270" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1271" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1272" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1273" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1274" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1275" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1276" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1277" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1278" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1279" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1280" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1281" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1282" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1283" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1284" t="s">
+        <v>686</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC49D7BB-DF5E-5243-9838-8E88FF2FA2B4}">
   <dimension ref="A1:AJ11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A11"/>
     </sheetView>
   </sheetViews>

--- a/TTTStatsTag.xlsx
+++ b/TTTStatsTag.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrisspartz/Documents/School/fun/statTags/TTT_stats/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34FD0974-0364-2243-B2B7-588C37CF4202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{572D77E0-91DD-CE4C-9428-B0DD2D1CD4AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14460" yWindow="2280" windowWidth="13960" windowHeight="14340" firstSheet="1" activeTab="3" xr2:uid="{605296F0-ECC4-3C4E-9A81-F310B2A629A3}"/>
+    <workbookView xWindow="14460" yWindow="2280" windowWidth="13960" windowHeight="14340" firstSheet="1" activeTab="2" xr2:uid="{605296F0-ECC4-3C4E-9A81-F310B2A629A3}"/>
   </bookViews>
   <sheets>
     <sheet name="PlayerStats" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="695">
   <si>
     <t>Player_Name</t>
   </si>
@@ -349,9 +349,6 @@
     <t>Fortnite</t>
   </si>
   <si>
-    <t>Artillerty</t>
-  </si>
-  <si>
     <t>The_world</t>
   </si>
   <si>
@@ -2099,6 +2096,33 @@
   </si>
   <si>
     <t>}</t>
+  </si>
+  <si>
+    <t>Delayed_Deagle</t>
+  </si>
+  <si>
+    <t>Zombie_Vault</t>
+  </si>
+  <si>
+    <t>Poltergeist</t>
+  </si>
+  <si>
+    <t>Artillery</t>
+  </si>
+  <si>
+    <t>Thwomp</t>
+  </si>
+  <si>
+    <t>Newton_Launcher</t>
+  </si>
+  <si>
+    <t>Peacekeeper</t>
+  </si>
+  <si>
+    <t>Silent_Fox</t>
+  </si>
+  <si>
+    <t>Silenced_Pistol</t>
   </si>
 </sst>
 </file>
@@ -3952,15 +3976,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17EE3FDE-1DFF-DA45-822B-D24BC746CD10}">
-  <dimension ref="A1:BK11"/>
+  <dimension ref="A1:BU11"/>
   <sheetViews>
-    <sheetView topLeftCell="BE1" zoomScale="107" workbookViewId="0">
-      <selection activeCell="BK6" sqref="BK6"/>
+    <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4112,46 +4136,76 @@
         <v>102</v>
       </c>
       <c r="AY1" t="s">
+        <v>689</v>
+      </c>
+      <c r="AZ1" t="s">
         <v>103</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>104</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>105</v>
       </c>
-      <c r="BB1" t="s">
-        <v>106</v>
-      </c>
       <c r="BC1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>107</v>
+      </c>
+      <c r="BE1" t="s">
         <v>134</v>
       </c>
-      <c r="BD1" t="s">
-        <v>108</v>
-      </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
+        <v>126</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>125</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>122</v>
+      </c>
+      <c r="BI1" t="s">
         <v>135</v>
       </c>
-      <c r="BF1" t="s">
-        <v>127</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>126</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>123</v>
-      </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>136</v>
       </c>
-      <c r="BJ1" t="s">
-        <v>137</v>
-      </c>
       <c r="BK1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:63" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>686</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>687</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>688</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>690</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>691</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>692</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>693</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>694</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -4164,8 +4218,215 @@
       <c r="D2">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <v>4</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>3</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>14</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>6</v>
+      </c>
+      <c r="V2">
+        <v>46</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>3</v>
+      </c>
+      <c r="AB2">
+        <v>9</v>
+      </c>
+      <c r="AC2">
+        <v>2</v>
+      </c>
+      <c r="AD2">
+        <v>27</v>
+      </c>
+      <c r="AE2">
+        <v>20</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>2</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>4</v>
+      </c>
+      <c r="AM2">
+        <v>20</v>
+      </c>
+      <c r="AN2">
+        <v>8</v>
+      </c>
+      <c r="AO2">
+        <v>1</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>1</v>
+      </c>
+      <c r="AW2">
+        <v>1</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>1</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <v>1</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>2</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>1</v>
+      </c>
+      <c r="BH2">
+        <v>1</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
+        <v>3</v>
+      </c>
+      <c r="BL2">
+        <v>1</v>
+      </c>
+      <c r="BM2">
+        <v>2</v>
+      </c>
+      <c r="BN2">
+        <v>1</v>
+      </c>
+      <c r="BO2">
+        <v>0</v>
+      </c>
+      <c r="BP2">
+        <v>0</v>
+      </c>
+      <c r="BQ2">
+        <v>0</v>
+      </c>
+      <c r="BR2">
+        <v>0</v>
+      </c>
+      <c r="BS2">
+        <v>0</v>
+      </c>
+      <c r="BT2">
+        <v>0</v>
+      </c>
+      <c r="BU2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -4178,8 +4439,215 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="E3">
+        <v>36</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>5</v>
+      </c>
+      <c r="S3">
+        <v>23</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>23</v>
+      </c>
+      <c r="V3">
+        <v>13</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>1</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>18</v>
+      </c>
+      <c r="AE3">
+        <v>114</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>66</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>6</v>
+      </c>
+      <c r="AJ3">
+        <v>1</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>2</v>
+      </c>
+      <c r="AM3">
+        <v>27</v>
+      </c>
+      <c r="AN3">
+        <v>16</v>
+      </c>
+      <c r="AO3">
+        <v>22</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>18</v>
+      </c>
+      <c r="AS3">
+        <v>3</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>4</v>
+      </c>
+      <c r="AZ3">
+        <v>16</v>
+      </c>
+      <c r="BA3">
+        <v>13</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>1</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>6</v>
+      </c>
+      <c r="BL3">
+        <v>0</v>
+      </c>
+      <c r="BM3">
+        <v>6</v>
+      </c>
+      <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3">
+        <v>2</v>
+      </c>
+      <c r="BP3">
+        <v>1</v>
+      </c>
+      <c r="BQ3">
+        <v>0</v>
+      </c>
+      <c r="BR3">
+        <v>0</v>
+      </c>
+      <c r="BS3">
+        <v>0</v>
+      </c>
+      <c r="BT3">
+        <v>0</v>
+      </c>
+      <c r="BU3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -4192,8 +4660,215 @@
       <c r="D4">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="E4">
+        <v>6</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>10</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>8</v>
+      </c>
+      <c r="T4">
+        <v>21</v>
+      </c>
+      <c r="U4">
+        <v>6</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>4</v>
+      </c>
+      <c r="AC4">
+        <v>8</v>
+      </c>
+      <c r="AD4">
+        <v>36</v>
+      </c>
+      <c r="AE4">
+        <v>83</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>38</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>12</v>
+      </c>
+      <c r="AN4">
+        <v>6</v>
+      </c>
+      <c r="AO4">
+        <v>2</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>3</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>1</v>
+      </c>
+      <c r="AX4">
+        <v>9</v>
+      </c>
+      <c r="AY4">
+        <v>7</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>8</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>1</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>1</v>
+      </c>
+      <c r="BH4">
+        <v>2</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>4</v>
+      </c>
+      <c r="BK4">
+        <v>9</v>
+      </c>
+      <c r="BL4">
+        <v>0</v>
+      </c>
+      <c r="BM4">
+        <v>0</v>
+      </c>
+      <c r="BN4">
+        <v>5</v>
+      </c>
+      <c r="BO4">
+        <v>0</v>
+      </c>
+      <c r="BP4">
+        <v>0</v>
+      </c>
+      <c r="BQ4">
+        <v>1</v>
+      </c>
+      <c r="BR4">
+        <v>0</v>
+      </c>
+      <c r="BS4">
+        <v>0</v>
+      </c>
+      <c r="BT4">
+        <v>0</v>
+      </c>
+      <c r="BU4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -4212,33 +4887,99 @@
       <c r="F5">
         <v>1</v>
       </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
       <c r="O5">
         <v>2</v>
       </c>
       <c r="P5">
         <v>1</v>
       </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
       <c r="S5">
         <v>24</v>
       </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
       <c r="U5">
         <v>4</v>
       </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
       <c r="Y5">
         <v>29</v>
       </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
       <c r="AD5">
         <v>18</v>
       </c>
       <c r="AE5">
         <v>35</v>
       </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
       <c r="AH5">
         <v>1</v>
       </c>
       <c r="AI5">
         <v>36</v>
       </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
       <c r="AL5">
         <v>1</v>
       </c>
@@ -4254,18 +4995,42 @@
       <c r="AP5">
         <v>1</v>
       </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
       <c r="AR5">
         <v>3</v>
       </c>
       <c r="AS5">
         <v>18</v>
       </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
       <c r="AX5">
         <v>7</v>
       </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
       <c r="BA5">
         <v>62</v>
       </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
       <c r="BC5">
         <v>1</v>
       </c>
@@ -4293,8 +5058,38 @@
       <c r="BK5">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="BL5">
+        <v>0</v>
+      </c>
+      <c r="BM5">
+        <v>0</v>
+      </c>
+      <c r="BN5">
+        <v>0</v>
+      </c>
+      <c r="BO5">
+        <v>0</v>
+      </c>
+      <c r="BP5">
+        <v>0</v>
+      </c>
+      <c r="BQ5">
+        <v>0</v>
+      </c>
+      <c r="BR5">
+        <v>0</v>
+      </c>
+      <c r="BS5">
+        <v>0</v>
+      </c>
+      <c r="BT5">
+        <v>0</v>
+      </c>
+      <c r="BU5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -4307,8 +5102,215 @@
       <c r="D6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>5</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>6</v>
+      </c>
+      <c r="T6">
+        <v>16</v>
+      </c>
+      <c r="U6">
+        <v>6</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>60</v>
+      </c>
+      <c r="AE6">
+        <v>80</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>15</v>
+      </c>
+      <c r="AM6">
+        <v>7</v>
+      </c>
+      <c r="AN6">
+        <v>25</v>
+      </c>
+      <c r="AO6">
+        <v>1</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>53</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>10</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>1</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>1</v>
+      </c>
+      <c r="BH6">
+        <v>1</v>
+      </c>
+      <c r="BI6">
+        <v>0</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BK6">
+        <v>12</v>
+      </c>
+      <c r="BL6">
+        <v>0</v>
+      </c>
+      <c r="BM6">
+        <v>0</v>
+      </c>
+      <c r="BN6">
+        <v>0</v>
+      </c>
+      <c r="BO6">
+        <v>0</v>
+      </c>
+      <c r="BP6">
+        <v>0</v>
+      </c>
+      <c r="BQ6">
+        <v>0</v>
+      </c>
+      <c r="BR6">
+        <v>0</v>
+      </c>
+      <c r="BS6">
+        <v>0</v>
+      </c>
+      <c r="BT6">
+        <v>0</v>
+      </c>
+      <c r="BU6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -4321,11 +5323,215 @@
       <c r="D7">
         <v>4</v>
       </c>
+      <c r="E7">
+        <v>17</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>4</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>3</v>
+      </c>
+      <c r="S7">
+        <v>9</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>3</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>2</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>6</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
       <c r="AK7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>8</v>
+      </c>
+      <c r="AN7">
+        <v>7</v>
+      </c>
+      <c r="AO7">
+        <v>7</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>7</v>
+      </c>
+      <c r="AS7">
+        <v>1</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>3</v>
+      </c>
+      <c r="BA7">
+        <v>5</v>
+      </c>
+      <c r="BB7">
+        <v>0</v>
+      </c>
+      <c r="BC7">
+        <v>0</v>
+      </c>
+      <c r="BD7">
+        <v>0</v>
+      </c>
+      <c r="BE7">
+        <v>0</v>
+      </c>
+      <c r="BF7">
+        <v>0</v>
+      </c>
+      <c r="BG7">
+        <v>0</v>
+      </c>
+      <c r="BH7">
+        <v>0</v>
+      </c>
+      <c r="BI7">
+        <v>0</v>
+      </c>
+      <c r="BJ7">
+        <v>4</v>
+      </c>
+      <c r="BK7">
+        <v>0</v>
+      </c>
+      <c r="BL7">
+        <v>0</v>
+      </c>
+      <c r="BM7">
+        <v>0</v>
+      </c>
+      <c r="BN7">
+        <v>0</v>
+      </c>
+      <c r="BO7">
+        <v>4</v>
+      </c>
+      <c r="BP7">
+        <v>0</v>
+      </c>
+      <c r="BQ7">
+        <v>0</v>
+      </c>
+      <c r="BR7">
+        <v>1</v>
+      </c>
+      <c r="BS7">
+        <v>0</v>
+      </c>
+      <c r="BT7">
+        <v>0</v>
+      </c>
+      <c r="BU7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -4338,8 +5544,215 @@
       <c r="D8">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="E8">
+        <v>59</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>15</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>4</v>
+      </c>
+      <c r="V8">
+        <v>58</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>2</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>1</v>
+      </c>
+      <c r="AE8">
+        <v>34</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>6</v>
+      </c>
+      <c r="AM8">
+        <v>9</v>
+      </c>
+      <c r="AN8">
+        <v>11</v>
+      </c>
+      <c r="AO8">
+        <v>2</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>1</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>16</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>0</v>
+      </c>
+      <c r="AY8">
+        <v>7</v>
+      </c>
+      <c r="AZ8">
+        <v>7</v>
+      </c>
+      <c r="BA8">
+        <v>6</v>
+      </c>
+      <c r="BB8">
+        <v>0</v>
+      </c>
+      <c r="BC8">
+        <v>0</v>
+      </c>
+      <c r="BD8">
+        <v>7</v>
+      </c>
+      <c r="BE8">
+        <v>0</v>
+      </c>
+      <c r="BF8">
+        <v>0</v>
+      </c>
+      <c r="BG8">
+        <v>2</v>
+      </c>
+      <c r="BH8">
+        <v>0</v>
+      </c>
+      <c r="BI8">
+        <v>0</v>
+      </c>
+      <c r="BJ8">
+        <v>0</v>
+      </c>
+      <c r="BK8">
+        <v>3</v>
+      </c>
+      <c r="BL8">
+        <v>0</v>
+      </c>
+      <c r="BM8">
+        <v>1</v>
+      </c>
+      <c r="BN8">
+        <v>0</v>
+      </c>
+      <c r="BO8">
+        <v>0</v>
+      </c>
+      <c r="BP8">
+        <v>0</v>
+      </c>
+      <c r="BQ8">
+        <v>0</v>
+      </c>
+      <c r="BR8">
+        <v>0</v>
+      </c>
+      <c r="BS8">
+        <v>1</v>
+      </c>
+      <c r="BT8">
+        <v>0</v>
+      </c>
+      <c r="BU8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -4352,8 +5765,215 @@
       <c r="D9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>8</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>4</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>1</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>2</v>
+      </c>
+      <c r="AE9">
+        <v>12</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>2</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>2</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>3</v>
+      </c>
+      <c r="AO9">
+        <v>1</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>3</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>0</v>
+      </c>
+      <c r="AY9">
+        <v>0</v>
+      </c>
+      <c r="AZ9">
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>5</v>
+      </c>
+      <c r="BB9">
+        <v>0</v>
+      </c>
+      <c r="BC9">
+        <v>0</v>
+      </c>
+      <c r="BD9">
+        <v>0</v>
+      </c>
+      <c r="BE9">
+        <v>0</v>
+      </c>
+      <c r="BF9">
+        <v>0</v>
+      </c>
+      <c r="BG9">
+        <v>3</v>
+      </c>
+      <c r="BH9">
+        <v>1</v>
+      </c>
+      <c r="BI9">
+        <v>0</v>
+      </c>
+      <c r="BJ9">
+        <v>1</v>
+      </c>
+      <c r="BK9">
+        <v>0</v>
+      </c>
+      <c r="BL9">
+        <v>0</v>
+      </c>
+      <c r="BM9">
+        <v>0</v>
+      </c>
+      <c r="BN9">
+        <v>0</v>
+      </c>
+      <c r="BO9">
+        <v>0</v>
+      </c>
+      <c r="BP9">
+        <v>0</v>
+      </c>
+      <c r="BQ9">
+        <v>0</v>
+      </c>
+      <c r="BR9">
+        <v>2</v>
+      </c>
+      <c r="BS9">
+        <v>2</v>
+      </c>
+      <c r="BT9">
+        <v>3</v>
+      </c>
+      <c r="BU9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -4366,11 +5986,215 @@
       <c r="D10">
         <v>6</v>
       </c>
+      <c r="E10">
+        <v>7</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>15</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>19</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>25</v>
+      </c>
+      <c r="N10">
+        <v>12</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>2</v>
+      </c>
+      <c r="Q10">
+        <v>6</v>
+      </c>
+      <c r="R10">
+        <v>4</v>
+      </c>
+      <c r="S10">
+        <v>15</v>
+      </c>
+      <c r="T10">
+        <v>2</v>
+      </c>
+      <c r="U10">
+        <v>16</v>
+      </c>
+      <c r="V10">
+        <v>1</v>
+      </c>
+      <c r="W10">
+        <v>2</v>
+      </c>
+      <c r="X10">
+        <v>6</v>
+      </c>
+      <c r="Y10">
+        <v>2</v>
+      </c>
+      <c r="Z10">
+        <v>8</v>
+      </c>
+      <c r="AA10">
+        <v>1</v>
+      </c>
+      <c r="AB10">
+        <v>3</v>
+      </c>
+      <c r="AC10">
+        <v>2</v>
+      </c>
+      <c r="AD10">
+        <v>23</v>
+      </c>
+      <c r="AE10">
+        <v>28</v>
+      </c>
+      <c r="AF10">
+        <v>2</v>
+      </c>
+      <c r="AG10">
+        <v>3</v>
+      </c>
+      <c r="AH10">
+        <v>1</v>
+      </c>
+      <c r="AI10">
+        <v>1</v>
+      </c>
+      <c r="AJ10">
+        <v>1</v>
+      </c>
       <c r="AK10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="AL10">
+        <v>18</v>
+      </c>
+      <c r="AM10">
+        <v>12</v>
+      </c>
+      <c r="AN10">
+        <v>12</v>
+      </c>
+      <c r="AO10">
+        <v>4</v>
+      </c>
+      <c r="AP10">
+        <v>2</v>
+      </c>
+      <c r="AQ10">
+        <v>41</v>
+      </c>
+      <c r="AR10">
+        <v>4</v>
+      </c>
+      <c r="AS10">
+        <v>1</v>
+      </c>
+      <c r="AT10">
+        <v>1</v>
+      </c>
+      <c r="AU10">
+        <v>1</v>
+      </c>
+      <c r="AV10">
+        <v>2</v>
+      </c>
+      <c r="AW10">
+        <v>16</v>
+      </c>
+      <c r="AX10">
+        <v>6</v>
+      </c>
+      <c r="AY10">
+        <v>18</v>
+      </c>
+      <c r="AZ10">
+        <v>1</v>
+      </c>
+      <c r="BA10">
+        <v>5</v>
+      </c>
+      <c r="BB10">
+        <v>2</v>
+      </c>
+      <c r="BC10">
+        <v>0</v>
+      </c>
+      <c r="BD10">
+        <v>0</v>
+      </c>
+      <c r="BE10">
+        <v>0</v>
+      </c>
+      <c r="BF10">
+        <v>0</v>
+      </c>
+      <c r="BG10">
+        <v>0</v>
+      </c>
+      <c r="BH10">
+        <v>0</v>
+      </c>
+      <c r="BI10">
+        <v>0</v>
+      </c>
+      <c r="BJ10">
+        <v>0</v>
+      </c>
+      <c r="BK10">
+        <v>0</v>
+      </c>
+      <c r="BL10">
+        <v>0</v>
+      </c>
+      <c r="BM10">
+        <v>0</v>
+      </c>
+      <c r="BN10">
+        <v>0</v>
+      </c>
+      <c r="BO10">
+        <v>0</v>
+      </c>
+      <c r="BP10">
+        <v>0</v>
+      </c>
+      <c r="BQ10">
+        <v>0</v>
+      </c>
+      <c r="BR10">
+        <v>0</v>
+      </c>
+      <c r="BS10">
+        <v>0</v>
+      </c>
+      <c r="BT10">
+        <v>0</v>
+      </c>
+      <c r="BU10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:73" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -4382,6 +6206,213 @@
       </c>
       <c r="D11">
         <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>14</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>9</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>2</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>34</v>
+      </c>
+      <c r="AE11">
+        <v>32</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>8</v>
+      </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
+      </c>
+      <c r="AM11">
+        <v>8</v>
+      </c>
+      <c r="AN11">
+        <v>14</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>0</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="AV11">
+        <v>4</v>
+      </c>
+      <c r="AW11">
+        <v>0</v>
+      </c>
+      <c r="AX11">
+        <v>0</v>
+      </c>
+      <c r="AY11">
+        <v>0</v>
+      </c>
+      <c r="AZ11">
+        <v>1</v>
+      </c>
+      <c r="BA11">
+        <v>0</v>
+      </c>
+      <c r="BB11">
+        <v>0</v>
+      </c>
+      <c r="BC11">
+        <v>0</v>
+      </c>
+      <c r="BD11">
+        <v>0</v>
+      </c>
+      <c r="BE11">
+        <v>0</v>
+      </c>
+      <c r="BF11">
+        <v>0</v>
+      </c>
+      <c r="BG11">
+        <v>0</v>
+      </c>
+      <c r="BH11">
+        <v>7</v>
+      </c>
+      <c r="BI11">
+        <v>0</v>
+      </c>
+      <c r="BJ11">
+        <v>0</v>
+      </c>
+      <c r="BK11">
+        <v>0</v>
+      </c>
+      <c r="BL11">
+        <v>0</v>
+      </c>
+      <c r="BM11">
+        <v>0</v>
+      </c>
+      <c r="BN11">
+        <v>0</v>
+      </c>
+      <c r="BO11">
+        <v>0</v>
+      </c>
+      <c r="BP11">
+        <v>0</v>
+      </c>
+      <c r="BQ11">
+        <v>0</v>
+      </c>
+      <c r="BR11">
+        <v>0</v>
+      </c>
+      <c r="BS11">
+        <v>1</v>
+      </c>
+      <c r="BT11">
+        <v>0</v>
+      </c>
+      <c r="BU11">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4393,7 +6424,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F354CB5-E9BF-2B47-9033-E5956B665E78}">
   <dimension ref="A1:Y1284"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+    <sheetView zoomScale="85" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -4401,4982 +6432,4982 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="M1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="P1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="S1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="V1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="Y1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="S2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="V2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Y2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="P3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="S3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="V3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="Y3" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="M4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="P4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="S4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="V4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="Y4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="M5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="P5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="S5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="V5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="Y5" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="P6" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="S6" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="V6" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="Y6" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="M7" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="P7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="S7" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="Y7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="P8" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="S8" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="V8" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Y8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="M9" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="P9" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="S9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V9" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="Y9" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M10" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="P10" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="S10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="V10" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="Y10" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="M11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P11" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="S11" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="V11" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="Y11" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J12" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="M12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="P12" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="S12" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="V12" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="Y12" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J13" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="M13" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="P13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="S13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Y13" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J14" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="M14" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="P14" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="S14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="V14" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="Y14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G15" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J15" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="M15" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="P15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="S15" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V15" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="Y15" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D16" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G16" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M16" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="P16" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="S16" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="V16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D17" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G17" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J17" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M17" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="P17" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="S17" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="V17" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J18" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="M18" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="P18" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="S18" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="V18" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D19" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J19" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="M19" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="P19" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="S19" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="V19" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D20" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G20" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J20" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="M20" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="P20" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="S20" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="V20" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D21" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G21" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="M21" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="P21" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="S21" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="V21" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D22" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G22" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M22" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="P22" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="S22" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="V22" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G23" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="P23" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="S23" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="V23" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D24" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="M24" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="P24" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="S24" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="V24" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D25" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G25" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="P25" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="S25" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="V25" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D26" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G26" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="V26" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D27" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G27" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="V27" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G28" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="V28" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D29" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G29" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="V29" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D30" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="V30" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D31" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="V31" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D32" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="V32" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="33" spans="4:22" x14ac:dyDescent="0.2">
       <c r="D33" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="V33" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="34" spans="4:22" x14ac:dyDescent="0.2">
       <c r="D34" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="V34" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="35" spans="4:22" x14ac:dyDescent="0.2">
       <c r="D35" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V35" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="36" spans="4:22" x14ac:dyDescent="0.2">
       <c r="V36" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="37" spans="4:22" x14ac:dyDescent="0.2">
       <c r="V37" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="38" spans="4:22" x14ac:dyDescent="0.2">
       <c r="V38" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="39" spans="4:22" x14ac:dyDescent="0.2">
       <c r="V39" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="40" spans="4:22" x14ac:dyDescent="0.2">
       <c r="V40" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="41" spans="4:22" x14ac:dyDescent="0.2">
       <c r="V41" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="42" spans="4:22" x14ac:dyDescent="0.2">
       <c r="V42" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="43" spans="4:22" x14ac:dyDescent="0.2">
       <c r="V43" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="44" spans="4:22" x14ac:dyDescent="0.2">
       <c r="V44" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="45" spans="4:22" x14ac:dyDescent="0.2">
       <c r="V45" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="46" spans="4:22" x14ac:dyDescent="0.2">
       <c r="V46" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="47" spans="4:22" x14ac:dyDescent="0.2">
       <c r="V47" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="48" spans="4:22" x14ac:dyDescent="0.2">
       <c r="V48" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="49" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V49" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="50" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V50" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="51" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V51" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="52" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V52" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="53" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V53" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="54" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V54" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="55" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V55" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="549" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="554" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="555" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="562" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="565" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="566" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="567" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="568" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="569" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="570" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="571" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="572" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="573" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="574" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="575" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="576" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="577" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="578" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="579" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="580" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="581" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="582" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="583" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="584" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="585" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="586" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="587" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="588" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="589" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="590" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="591" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="592" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="593" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="594" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="595" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="596" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="597" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="598" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="599" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="600" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="601" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="602" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="603" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="604" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="605" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="606" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="607" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="608" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="609" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="610" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="611" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="631" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="632" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A632" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="633" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A633" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="634" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A634" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="635" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A635" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="636" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A636" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="637" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A637" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="638" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A638" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="639" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="640" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="641" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="642" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A642" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="643" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A643" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="644" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="645" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A645" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="646" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="647" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A647" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="648" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="649" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A649" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="650" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A650" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="651" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="652" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A652" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="653" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A653" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="655" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A655" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="656" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A656" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="657" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="658" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A658" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="659" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A659" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="660" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A660" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="661" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="662" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="663" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="664" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A664" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="665" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A665" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="666" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="667" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="668" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="669" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A669" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="670" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="671" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A671" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="672" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A672" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="673" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A673" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="674" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A674" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="675" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A675" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="676" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A676" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="677" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A677" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="678" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A678" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="679" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A679" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="680" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A680" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="681" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="682" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A682" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="683" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A683" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="684" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A684" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="685" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A685" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="686" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A686" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="687" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A687" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="688" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A688" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="689" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A689" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="690" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A690" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="691" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A691" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="692" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A692" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="693" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A693" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="694" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A694" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="695" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A695" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="696" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A696" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="697" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A697" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="698" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A698" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="699" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A699" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="700" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A700" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="701" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A701" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="702" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A702" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="703" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A703" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="704" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A704" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="705" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A705" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="706" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A706" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="707" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A707" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="708" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A708" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="709" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A709" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="710" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A710" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="711" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A711" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="712" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A712" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="713" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A713" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="714" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A714" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="715" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A715" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="716" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A716" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="717" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A717" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="718" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A718" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="719" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A719" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="720" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A720" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="721" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A721" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="722" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A722" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="723" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A723" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="724" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A724" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="725" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A725" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="726" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A726" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="727" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A727" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="728" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A728" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="729" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A729" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="730" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A730" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="731" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A731" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="732" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A732" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="733" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A733" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="734" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A734" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="758" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A758" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="759" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A759" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="760" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A760" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="761" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A761" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="762" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A762" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="763" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A763" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="764" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A764" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="765" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A765" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="766" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A766" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="767" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A767" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="768" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A768" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="770" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A770" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="771" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A771" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="772" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A772" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="773" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A773" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="774" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A774" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="775" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A775" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="776" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A776" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="777" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A777" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="778" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A778" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="779" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A779" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="780" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A780" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="781" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A781" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="782" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A782" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="783" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A783" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="784" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A784" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="785" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A785" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="786" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A786" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="787" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A787" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="788" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A788" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="789" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A789" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="790" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A790" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="791" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A791" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="792" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A792" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="793" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A793" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="794" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A794" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="795" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A795" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="796" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A796" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="797" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A797" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="798" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A798" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="799" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A799" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="800" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A800" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="801" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A801" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="802" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A802" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="803" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A803" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="804" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A804" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="805" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A805" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="806" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A806" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="807" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A807" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="808" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A808" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="809" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A809" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="810" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A810" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="811" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A811" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="812" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A812" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="813" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A813" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="814" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A814" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="815" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A815" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="816" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A816" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="817" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A817" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="818" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A818" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="819" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A819" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="820" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A820" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="821" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A821" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="822" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A822" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="823" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A823" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="824" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A824" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="825" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A825" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="826" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A826" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="827" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A827" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="828" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A828" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="829" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A829" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="830" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A830" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="831" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A831" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="832" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A832" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="833" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A833" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="834" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A834" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="835" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A835" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="836" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A836" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="837" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A837" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="838" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A838" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="839" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A839" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="840" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A840" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="865" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A865" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="866" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A866" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="867" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A867" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="868" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A868" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="869" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A869" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="870" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A870" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="871" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A871" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="872" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A872" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="873" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A873" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="874" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A874" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="875" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A875" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="876" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A876" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="877" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A877" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="878" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A878" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="879" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A879" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="880" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A880" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="881" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A881" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="882" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A882" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="883" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A883" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="884" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A884" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="885" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A885" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="886" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A886" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="887" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A887" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="888" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A888" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="889" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A889" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="890" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A890" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="891" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A891" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="892" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A892" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="893" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A893" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="894" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A894" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="896" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A896" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="897" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A897" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="898" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A898" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="899" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A899" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="900" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A900" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="901" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A901" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="902" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A902" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="903" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A903" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="904" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A904" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="905" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A905" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="906" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A906" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="907" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A907" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="908" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A908" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="909" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A909" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="910" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A910" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="911" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A911" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="912" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A912" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="913" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A913" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="914" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A914" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="915" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A915" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="916" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A916" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="917" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A917" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="918" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A918" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="919" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A919" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="920" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A920" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="921" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A921" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="922" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A922" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="923" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A923" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="924" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A924" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="925" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A925" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="926" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A926" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="927" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A927" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="928" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A928" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="929" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A929" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="930" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A930" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="931" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A931" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="932" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A932" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="933" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A933" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="934" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A934" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="935" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A935" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="936" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A936" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="937" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A937" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="938" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A938" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="939" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A939" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="940" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A940" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="941" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A941" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="942" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A942" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="943" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A943" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="944" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A944" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="945" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A945" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="946" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A946" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="947" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A947" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="948" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A948" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="949" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A949" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="950" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A950" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="951" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A951" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="952" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A952" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="953" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A953" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="954" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A954" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="955" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A955" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="956" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A956" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="957" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A957" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="958" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A958" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="959" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A959" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="960" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A960" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="961" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A961" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="986" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A986" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="987" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A987" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="988" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A988" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="989" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A989" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="990" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A990" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="991" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A991" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="992" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A992" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="993" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A993" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="994" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A994" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="995" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A995" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="996" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A996" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="997" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A997" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="998" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A998" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="999" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A999" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="1000" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1000" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="1001" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1001" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="1002" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1002" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="1003" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1003" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="1004" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1004" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="1005" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1005" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="1007" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1007" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="1008" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1008" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="1009" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1009" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="1010" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1010" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="1011" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1011" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="1012" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1012" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="1013" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1013" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="1014" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1014" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="1015" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1015" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="1016" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1016" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="1017" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1017" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="1018" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1018" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="1019" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1019" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="1020" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1020" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="1021" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1021" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="1022" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1022" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="1023" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1023" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="1024" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1024" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="1025" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1025" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="1026" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1026" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="1027" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1027" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="1028" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1028" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="1029" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1029" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="1030" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1030" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="1031" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1031" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="1032" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1032" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="1033" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1033" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="1034" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1034" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="1035" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1035" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="1036" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1036" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="1037" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1037" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="1038" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1038" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="1039" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1039" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="1040" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1040" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="1041" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1041" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="1042" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1042" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="1043" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1043" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="1044" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1044" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="1045" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1045" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="1046" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1046" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="1047" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1047" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="1048" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1048" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="1049" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1049" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="1050" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1050" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="1051" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1051" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="1052" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1052" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="1053" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1053" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="1054" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1054" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="1055" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1055" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="1056" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1056" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="1057" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1057" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="1058" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1058" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="1059" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1059" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="1060" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1060" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="1061" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1061" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="1062" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1062" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="1063" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1063" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="1064" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1064" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="1065" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1065" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="1066" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1066" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="1067" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1067" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="1068" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1068" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="1069" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1069" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="1070" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1070" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="1071" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1071" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="1072" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1072" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="1073" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1073" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="1074" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1074" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="1075" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1075" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="1076" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1076" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="1077" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1077" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="1132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1132" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="1133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1133" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="1134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1134" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="1135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1135" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="1136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1136" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="1137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1137" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="1138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1138" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="1139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1139" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="1140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1140" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="1141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1141" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="1142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1142" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="1143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1143" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="1144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1144" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="1145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1145" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="1146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1146" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="1147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1147" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="1148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1148" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="1149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1149" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="1150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1150" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="1151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1151" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="1152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1152" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="1153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1153" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="1154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1154" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="1155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1155" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="1156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1156" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="1157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1157" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="1158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1158" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="1159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1159" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="1160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1160" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="1161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1161" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="1162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1162" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="1163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1163" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="1164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1164" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="1165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1165" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="1166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1166" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="1167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1167" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="1169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1169" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="1170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1170" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="1171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1171" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="1172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1172" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="1173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1173" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="1174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1174" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="1175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1175" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="1176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1176" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="1177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1177" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="1178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1178" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="1179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1179" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="1180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1180" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="1181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1181" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="1182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1182" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="1183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1183" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="1184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1184" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="1185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1185" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="1186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1186" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="1187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1187" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="1188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1188" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="1189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1189" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="1190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1190" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="1191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1191" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="1192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1192" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="1193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1193" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="1194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1194" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="1195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1195" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="1196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1196" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="1197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1197" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="1198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1198" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="1199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1199" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="1200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1200" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="1201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1201" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="1202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1202" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="1203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1203" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="1204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1204" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="1205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1205" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="1206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1206" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="1207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1207" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="1208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1208" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="1209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1209" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="1210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1210" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="1211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1211" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="1212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1212" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="1213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1213" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="1214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1214" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="1215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1215" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="1216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1216" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="1217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1217" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="1218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1218" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="1219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1219" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="1220" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1220" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="1221" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1221" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="1222" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1222" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="1223" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1223" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="1224" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1224" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="1225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1225" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="1226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1226" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="1227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1227" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="1228" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1228" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="1229" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1229" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="1230" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1230" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="1231" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1231" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="1232" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1232" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="1233" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1233" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="1234" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1234" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="1235" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1235" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="1236" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1236" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="1237" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1237" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="1238" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1238" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="1239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1239" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="1254" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1254" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="1255" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1255" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="1256" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1256" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="1257" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1257" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="1258" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1258" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="1259" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1259" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="1260" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1260" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="1261" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1261" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="1262" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1262" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="1263" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1263" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="1264" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1264" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="1265" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1265" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="1266" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1266" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="1267" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1267" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="1268" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1268" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="1269" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1269" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="1270" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1270" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="1271" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1271" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="1272" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1272" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="1273" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1273" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="1274" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1274" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="1275" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1275" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="1276" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1276" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="1277" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1277" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="1278" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1278" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="1279" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1279" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="1280" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1280" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="1281" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1281" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="1282" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1282" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="1283" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1283" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="1284" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1284" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
   </sheetData>
@@ -9399,28 +11430,28 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C1" t="s">
         <v>77</v>
       </c>
       <c r="D1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" t="s">
         <v>108</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>109</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>110</v>
-      </c>
-      <c r="G1" t="s">
-        <v>111</v>
       </c>
       <c r="H1" t="s">
         <v>82</v>
       </c>
       <c r="I1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J1" t="s">
         <v>86</v>
@@ -9432,25 +11463,25 @@
         <v>92</v>
       </c>
       <c r="M1" t="s">
+        <v>112</v>
+      </c>
+      <c r="N1" t="s">
         <v>113</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>114</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>115</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>116</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>117</v>
       </c>
       <c r="R1" t="s">
         <v>71</v>
       </c>
       <c r="S1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="T1" t="s">
         <v>83</v>
@@ -9459,49 +11490,49 @@
         <v>102</v>
       </c>
       <c r="V1" t="s">
+        <v>118</v>
+      </c>
+      <c r="W1" t="s">
         <v>119</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>120</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>121</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA1" t="s">
         <v>122</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH1" t="s">
         <v>130</v>
       </c>
-      <c r="AA1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>131</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>132</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.2">
